--- a/BR_Mailer/Service/Service_Mailing_List.xlsx
+++ b/BR_Mailer/Service/Service_Mailing_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\BR\zDev\BR_Scripts\BRPoSh\BR_Mailer\Service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{20AED4F0-DC70-4D74-A7AB-BBB1D4230ED4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0A46770A-DA80-41F0-8D2C-F7A0EA3DA541}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21540" windowHeight="6840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,10 +67,10 @@
     <t xml:space="preserve">Prorepair open order </t>
   </si>
   <si>
-    <t>S:\BR\Utilities\Email Master Send\ETU_Service_Prorepair</t>
-  </si>
-  <si>
-    <t>ProRepair-Vancouver-Link.docx</t>
+    <t>S:\Pro-Repair\Toronto</t>
+  </si>
+  <si>
+    <t>ProRepair-Toronto.xlsm</t>
   </si>
 </sst>
 </file>
@@ -914,7 +914,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,7 +922,7 @@
     <col min="4" max="4" width="84.42578125" customWidth="1"/>
     <col min="7" max="7" width="81.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="53" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" customWidth="1"/>
+    <col min="12" max="12" width="29.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -981,7 +981,7 @@
       </c>
       <c r="G2" t="str">
         <f>K2&amp;"\"&amp;L2</f>
-        <v>S:\BR\Utilities\Email Master Send\ETU_Service_Prorepair\ProRepair-Vancouver-Link.docx</v>
+        <v>S:\Pro-Repair\Toronto\ProRepair-Toronto.xlsm</v>
       </c>
       <c r="K2" t="s">
         <v>15</v>
